--- a/biology/Zoologie/Ichthyomys_stolzmanni/Ichthyomys_stolzmanni.xlsx
+++ b/biology/Zoologie/Ichthyomys_stolzmanni/Ichthyomys_stolzmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ichthyomys de Stolzmann
-Ichthyomys stolzmanni, l’Ichthyomys de Stolzmann, est une espèce de rongeurs semi-aquatiques de la famille Cricetidae connue seulement de trois localités d'Équateur et quatre localités du Pérou[2].
+Ichthyomys stolzmanni, l’Ichthyomys de Stolzmann, est une espèce de rongeurs semi-aquatiques de la famille Cricetidae connue seulement de trois localités d'Équateur et quatre localités du Pérou.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ichthyomys stolzmanni a été décrite en 1893 par le mammalogiste anglais Oldfield Thomas (1858-1929)[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ichthyomys stolzmanni a été décrite en 1893 par le mammalogiste anglais Oldfield Thomas (1858-1929),.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Oldfield Thomas, « A fish-eating rodent », Natural science, vol. 2,‎ 1893, p. 286 (ISSN 2150-4091 et 2150-4105, lire en ligne)</t>
         </is>
